--- a/biology/Botanique/Roseraie_de_Barbary/Roseraie_de_Barbary.xlsx
+++ b/biology/Botanique/Roseraie_de_Barbary/Roseraie_de_Barbary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La roseraie de Barbary est une roseraie privée de 2 hectares, située en  France à Saint-Vincent dans les Pyrénées-Atlantiques et fondée en 2003 ; elle est ouverte au public toute l'année[1],[2].
+La roseraie de Barbary est une roseraie privée de 2 hectares, située en  France à Saint-Vincent dans les Pyrénées-Atlantiques et fondée en 2003 ; elle est ouverte au public toute l'année,.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Installations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La roseraie abrite 800 variétés de roses modernes avec cinq kiosques ludiques et interactifs[3],[2].
-Elle compte aussi une boutique avec des produits à base de roses (dont cosmétiques), une terrasse, un restaurant-salon de thé[1] et offre un panorama remarquable sur la chaîne des Pyrénées[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La roseraie abrite 800 variétés de roses modernes avec cinq kiosques ludiques et interactifs,.
+Elle compte aussi une boutique avec des produits à base de roses (dont cosmétiques), une terrasse, un restaurant-salon de thé et offre un panorama remarquable sur la chaîne des Pyrénées.
 </t>
         </is>
       </c>
